--- a/Root/AllExcelFilesBackup/Ideal_Testing_ContextMenu.xlsx
+++ b/Root/AllExcelFilesBackup/Ideal_Testing_ContextMenu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henryro\OneDrive - Ballarat Grammar School\2019 Software\Sat\ExcelFilesTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F515F8-0D4C-454F-8F46-C2A589EADDAC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD5EC75-1CA8-43D8-BCE2-8C756C2DBEFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{FD00B04C-C19E-47E2-B809-7A759B83795E}"/>
+    <workbookView xWindow="12860" yWindow="1670" windowWidth="5990" windowHeight="9020" xr2:uid="{FD00B04C-C19E-47E2-B809-7A759B83795E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70498049-1644-4F84-AD9A-B97AF372534E}">
   <dimension ref="B7:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
